--- a/Fall-Semester/ANLT600/Confidence interval.xlsx
+++ b/Fall-Semester/ANLT600/Confidence interval.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saskpolytech-my.sharepoint.com/personal/royan_saskpolytech_ca/Documents/M Drive/MATH &amp; STAT/AY - 2022_2023/Fall/ANLT 600/Excel problems/Time series analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1E3A2F-41E8-49D5-AC7D-158F39C8C6A2}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC1048FA891C6BB65BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E6EF5D-BF37-EE4D-9A34-985596090023}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="27540" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="CI" sheetId="1" r:id="rId2"/>
-    <sheet name="Exercise (CI)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 Practice" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="CI" sheetId="1" r:id="rId3"/>
+    <sheet name="Exercise (CI)" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet1 Practice'!$A$2:$A$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet1 Practice'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet1 Practice'!$B$2:$B$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet1 Practice'!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet1 Practice'!$C$2:$C$39</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet1 Practice'!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet1 Practice'!$D$2:$D$39</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet1 Practice'!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet1 Practice'!$E$2:$E$39</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -54,6 +66,21 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>1. Copy data</t>
+  </si>
+  <si>
+    <t>3. lower: forecast.ets - forecast.ets.confint</t>
+  </si>
+  <si>
+    <t>2. forecast: forecast.ets</t>
+  </si>
+  <si>
+    <t>3. uppper: forecast.ets + forecast.ets.confint</t>
   </si>
 </sst>
 </file>
@@ -141,7 +168,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
     </dxf>
@@ -165,6 +204,1082 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 Practice'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales ($thousands)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$B$2:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0_);\([$$-409]#,##0\)</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3309</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B4A-1649-BBCC-6A1DF8FC3F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 Practice'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Sales ($thousands))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="29" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>463.41490545050044</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>465.82981090100111</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>468.24471635150155</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>470.65962180200222</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>473.07452725250266</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>475.48943270300333</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>477.90433815350377</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>480.31924360400444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B4A-1649-BBCC-6A1DF8FC3F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 Practice'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(Sales ($thousands))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$D$2:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="29" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1405.2290125999043</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1417.8235064661212</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1430.533828993674</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1443.3590585749371</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1456.2982820807711</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1469.3505950657054</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1482.5151019517339</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>-1495.7909161917944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B4A-1649-BBCC-6A1DF8FC3F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 Practice'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(Sales ($thousands))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 Practice'!$E$2:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="29" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2332.0588235009054</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2349.4831282681234</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2367.0232616966773</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2384.6783021789415</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2402.4473365857766</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2420.3294604717121</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2438.3237782587412</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)">
+                  <c:v>2456.429403399803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B4A-1649-BBCC-6A1DF8FC3F84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="966164271"/>
+        <c:axId val="966165983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="966164271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966165983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="966165983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966164271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1135,6 +2250,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1651,7 +2806,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3900992-BECA-D92D-C058-E997DD6CDA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1693,18 +3405,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D1EE7A9B-9985-8B4F-8F79-E18FB2526695}" name="Table13" displayName="Table13" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39" xr:uid="{FC2A6739-30C9-4153-8ED8-2928FBB723B6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{96D81166-44EB-8D48-97F3-91023FD08589}" name="Day"/>
+    <tableColumn id="2" xr3:uid="{8476D4E8-C82C-0F4B-BB4C-3E2390DE3BC3}" name="Sales ($thousands)"/>
+    <tableColumn id="3" xr3:uid="{433109BA-D74D-024A-A7DF-0B2FBC145B81}" name="Forecast(Sales ($thousands))" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$31,$A$2:$A$31,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AB20202E-4E74-A245-B517-723833E74547}" name="Lower Confidence Bound(Sales ($thousands))" dataDxfId="2">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8EBBB95B-50FB-5845-903A-C3C9F7E0E06A}" name="Upper Confidence Bound(Sales ($thousands))" dataDxfId="1">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6EB3089C-2B2B-014A-92FE-47697B4D3C61}" name="Column1" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC2A6739-30C9-4153-8ED8-2928FBB723B6}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <autoFilter ref="A1:E39" xr:uid="{FC2A6739-30C9-4153-8ED8-2928FBB723B6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CFCC1656-138B-470E-A301-C738E8246F49}" name="Day"/>
     <tableColumn id="2" xr3:uid="{139A6773-0118-414D-8126-5E724ADEB91C}" name="Sales ($thousands)"/>
-    <tableColumn id="3" xr3:uid="{0E08448B-DE3B-4DAB-BE98-084FA4030746}" name="Forecast(Sales ($thousands))" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{0E08448B-DE3B-4DAB-BE98-084FA4030746}" name="Forecast(Sales ($thousands))" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$31,$A$2:$A$31,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F976D191-B77D-464E-BE7B-F7ED50BE670A}" name="Lower Confidence Bound(Sales ($thousands))" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{F976D191-B77D-464E-BE7B-F7ED50BE670A}" name="Lower Confidence Bound(Sales ($thousands))" dataDxfId="5">
       <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B0BA9E16-2C3E-484C-AE49-C5316DA77F41}" name="Upper Confidence Bound(Sales ($thousands))" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{B0BA9E16-2C3E-484C-AE49-C5316DA77F41}" name="Upper Confidence Bound(Sales ($thousands))" dataDxfId="4">
       <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1974,22 +3707,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236F88E-32EB-4459-9ED5-596CEF7E60C8}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E3F6C9-754D-4944-9F46-A99A5A1B970B}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L9" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2005,240 +3738,272 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>901</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>890</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>855</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>865</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>845</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>848</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>637</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2140</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1358</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1322</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>3106</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2165</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1015</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1750</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1048</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>3570</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1109</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>1172</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>3309</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>835</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>2701</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>862</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>907</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>1105</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2254,142 +4019,159 @@
       <c r="E31" s="1">
         <v>461</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ref="C32:C39" si="0">_xlfn.FORECAST.ETS(A32,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>463.41490545050044</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:D39" si="1">C32-_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1405.2290125999043</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32:E39" si="2">C32+_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2332.0588235009054</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>465.82981090100111</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1417.8235064661212</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2349.4831282681234</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>468.24471635150155</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1430.533828993674</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2367.0232616966773</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>470.65962180200222</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1443.3590585749371</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2384.6783021789415</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>473.07452725250266</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1456.2982820807711</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2402.4473365857766</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>475.48943270300333</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1469.3505950657054</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2420.3294604717121</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>477.90433815350377</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1482.5151019517339</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2438.3237782587412</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f>_xlfn.FORECAST.ETS(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,1,1)</f>
         <v>480.31924360400444</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="1"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]-_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>-1495.7909161917944</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f>Table13[[#This Row],[Forecast(Sales ($thousands))]]+_xlfn.FORECAST.ETS.CONFINT(Table13[[#This Row],[Day]],$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
         <v>2456.429403399803</v>
       </c>
+      <c r="F39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2401,6 +4183,433 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C236F88E-32EB-4459-9ED5-596CEF7E60C8}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>461</v>
+      </c>
+      <c r="C31" s="1">
+        <v>461</v>
+      </c>
+      <c r="D31" s="1">
+        <v>461</v>
+      </c>
+      <c r="E31" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ref="C32:C39" si="0">_xlfn.FORECAST.ETS(A32,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>463.41490545050044</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D39" si="1">C32-_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>-1405.2290125999043</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32:E39" si="2">C32+_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2332.0588235009054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>465.82981090100111</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>-1417.8235064661212</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>2349.4831282681234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>468.24471635150155</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>-1430.533828993674</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>2367.0232616966773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>470.65962180200222</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>-1443.3590585749371</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>2384.6783021789415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>473.07452725250266</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>-1456.2982820807711</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>2402.4473365857766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>475.48943270300333</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>-1469.3505950657054</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>2420.3294604717121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>477.90433815350377</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>-1482.5151019517339</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>2438.3237782587412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>480.31924360400444</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>-1495.7909161917944</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>2456.429403399803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2408,12 +4617,12 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2429,7 +4638,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2437,7 +4646,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2445,7 +4654,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2453,7 +4662,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2461,7 +4670,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2469,7 +4678,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2477,7 +4686,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2485,7 +4694,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2493,7 +4702,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2501,7 +4710,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2509,7 +4718,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2517,7 +4726,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2525,7 +4734,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2533,7 +4742,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2541,7 +4750,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2549,7 +4758,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2557,7 +4766,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2565,7 +4774,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2573,7 +4782,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2581,7 +4790,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2589,7 +4798,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2597,7 +4806,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2605,7 +4814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2613,7 +4822,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2621,7 +4830,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2629,7 +4838,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2637,7 +4846,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2645,7 +4854,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2653,7 +4862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2666,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D576C6D1-A666-4AF9-8195-3E15EE8BE6E6}">
   <dimension ref="A1:B61"/>
   <sheetViews>
@@ -2674,13 +4883,13 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>42370</v>
       </c>
@@ -2696,7 +4905,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42371</v>
       </c>
@@ -2704,7 +4913,7 @@
         <v>201948.89129843231</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42372</v>
       </c>
@@ -2712,7 +4921,7 @@
         <v>203181.50427140191</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42373</v>
       </c>
@@ -2720,7 +4929,7 @@
         <v>204103.03626249731</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42374</v>
       </c>
@@ -2728,7 +4937,7 @@
         <v>202361.71593783092</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42375</v>
       </c>
@@ -2736,7 +4945,7 @@
         <v>205360.39653318224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42376</v>
       </c>
@@ -2744,7 +4953,7 @@
         <v>208431.56392806311</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42377</v>
       </c>
@@ -2752,7 +4961,7 @@
         <v>205626.50557434358</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42378</v>
       </c>
@@ -2760,7 +4969,7 @@
         <v>206297.26767246041</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42379</v>
       </c>
@@ -2768,7 +4977,7 @@
         <v>208326.17463905719</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42380</v>
       </c>
@@ -2776,7 +4985,7 @@
         <v>206247.24528618678</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42381</v>
       </c>
@@ -2784,7 +4993,7 @@
         <v>203095.95656298366</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42382</v>
       </c>
@@ -2792,7 +5001,7 @@
         <v>205436.09529163374</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42383</v>
       </c>
@@ -2800,7 +5009,7 @@
         <v>206387.86232483713</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42384</v>
       </c>
@@ -2808,7 +5017,7 @@
         <v>205132.22400887078</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42385</v>
       </c>
@@ -2816,7 +5025,7 @@
         <v>208475.66073457114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>42386</v>
       </c>
@@ -2824,7 +5033,7 @@
         <v>212554.52314577106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42387</v>
       </c>
@@ -2832,7 +5041,7 @@
         <v>212182.70918334631</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42388</v>
       </c>
@@ -2840,7 +5049,7 @@
         <v>209702.83615855587</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42389</v>
       </c>
@@ -2848,7 +5057,7 @@
         <v>208779.67104048815</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42390</v>
       </c>
@@ -2856,7 +5065,7 @@
         <v>214069.58610799268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42391</v>
       </c>
@@ -2864,7 +5073,7 @@
         <v>210821.15813022904</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42392</v>
       </c>
@@ -2872,7 +5081,7 @@
         <v>206240.07620498652</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42393</v>
       </c>
@@ -2880,7 +5089,7 @@
         <v>205564.10476785753</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42394</v>
       </c>
@@ -2888,7 +5097,7 @@
         <v>205111.9912259194</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>42395</v>
       </c>
@@ -2896,7 +5105,7 @@
         <v>204193.03540289059</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>42396</v>
       </c>
@@ -2904,7 +5113,7 @@
         <v>201382.31647494892</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>42397</v>
       </c>
@@ -2912,7 +5121,7 @@
         <v>198379.90912014677</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>42398</v>
       </c>
@@ -2920,7 +5129,7 @@
         <v>197843.66867152203</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>42399</v>
       </c>
@@ -2928,7 +5137,7 @@
         <v>199689.13622115258</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>42400</v>
       </c>
@@ -2936,7 +5145,7 @@
         <v>201075.74395191969</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>42401</v>
       </c>
@@ -2944,7 +5153,7 @@
         <v>202966.55516060698</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>42402</v>
       </c>
@@ -2952,7 +5161,7 @@
         <v>204283.00324202597</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>42403</v>
       </c>
@@ -2960,7 +5169,7 @@
         <v>202133.01095823938</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>42404</v>
       </c>
@@ -2968,7 +5177,7 @@
         <v>202160.37590605416</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>42405</v>
       </c>
@@ -2976,7 +5185,7 @@
         <v>201839.10182152988</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>42406</v>
       </c>
@@ -2984,7 +5193,7 @@
         <v>198945.71225992317</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>42407</v>
       </c>
@@ -2992,7 +5201,7 @@
         <v>197944.87680347962</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>42408</v>
       </c>
@@ -3000,7 +5209,7 @@
         <v>195542.25318820655</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42409</v>
       </c>
@@ -3008,7 +5217,7 @@
         <v>196740.88282661315</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>42410</v>
       </c>
@@ -3016,7 +5225,7 @@
         <v>197247.2055151118</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42411</v>
       </c>
@@ -3024,7 +5233,7 @@
         <v>197468.24456612009</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42412</v>
       </c>
@@ -3032,7 +5241,7 @@
         <v>195345.84717172195</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42413</v>
       </c>
@@ -3040,7 +5249,7 @@
         <v>195559.6666289132</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42414</v>
       </c>
@@ -3048,7 +5257,7 @@
         <v>195015.1452651984</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42415</v>
       </c>
@@ -3056,7 +5265,7 @@
         <v>193443.55623965137</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>42416</v>
       </c>
@@ -3064,7 +5273,7 @@
         <v>194252.79859948641</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>42417</v>
       </c>
@@ -3072,7 +5281,7 @@
         <v>193805.94945330432</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>42418</v>
       </c>
@@ -3080,7 +5289,7 @@
         <v>193368.62014795156</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>42419</v>
       </c>
@@ -3088,7 +5297,7 @@
         <v>191506.95325063897</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>42420</v>
       </c>
@@ -3096,7 +5305,7 @@
         <v>191981.33190844924</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>42421</v>
       </c>
@@ -3104,7 +5313,7 @@
         <v>191859.34839760367</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>42422</v>
       </c>
@@ -3112,7 +5321,7 @@
         <v>193167.1689171645</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>42423</v>
       </c>
@@ -3120,7 +5329,7 @@
         <v>189924.0861414411</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>42424</v>
       </c>
@@ -3128,7 +5337,7 @@
         <v>190326.76411962783</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>42425</v>
       </c>
@@ -3136,7 +5345,7 @@
         <v>189121.24046490074</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>42426</v>
       </c>
@@ -3144,7 +5353,7 @@
         <v>186370.07957957388</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>42427</v>
       </c>
@@ -3152,7 +5361,7 @@
         <v>186046.84992046433</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>42428</v>
       </c>
@@ -3160,7 +5369,7 @@
         <v>187939.78006909092</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>42429</v>
       </c>
